--- a/artfynd/A 18829-2023 artfynd.xlsx
+++ b/artfynd/A 18829-2023 artfynd.xlsx
@@ -1223,7 +1223,7 @@
         <v>130669682</v>
       </c>
       <c r="B6" t="n">
-        <v>58312</v>
+        <v>58316</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
